--- a/1. Final Documentation/22. Test Plan/Patrick/9_11_to_9_17_Tests.xlsx
+++ b/1. Final Documentation/22. Test Plan/Patrick/9_11_to_9_17_Tests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Local\patrick.cura2\Weltec-Project\1. Final Documentation\22. Test Plan\Patrick\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaptopBackup\Desktop\School\Project\Weltec-Project\1. Final Documentation\22. Test Plan\Patrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -230,9 +230,6 @@
     <t>If the server check takes time the progress bar below is enabled and the Form elements are not clickable while processing is ongoing via threading.</t>
   </si>
   <si>
-    <t>Week of September 4 to 10, 2016</t>
-  </si>
-  <si>
     <t>Application Proper</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>The Close Button Closes the Application</t>
+  </si>
+  <si>
+    <t>Week of September 11 to 17, 2016</t>
   </si>
 </sst>
 </file>
@@ -719,6 +719,48 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -728,88 +770,32 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -1094,7 +1080,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <numFmt numFmtId="164" formatCode="d\-mmm\-yy"/>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
@@ -1208,16 +1194,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G10" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G10" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A1:G10"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="16"/>
-    <tableColumn id="2" name="Sheet" dataDxfId="15"/>
-    <tableColumn id="3" name="Change" dataDxfId="14"/>
-    <tableColumn id="7" name="Modified By" dataDxfId="13"/>
-    <tableColumn id="4" name="Description" dataDxfId="12"/>
-    <tableColumn id="5" name="Comments" dataDxfId="11"/>
-    <tableColumn id="6" name="Version" dataDxfId="10"/>
+    <tableColumn id="1" name="Date" dataDxfId="14"/>
+    <tableColumn id="2" name="Sheet" dataDxfId="13"/>
+    <tableColumn id="3" name="Change" dataDxfId="12"/>
+    <tableColumn id="7" name="Modified By" dataDxfId="11"/>
+    <tableColumn id="4" name="Description" dataDxfId="10"/>
+    <tableColumn id="5" name="Comments" dataDxfId="9"/>
+    <tableColumn id="6" name="Version" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1657,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,70 +1661,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="22" t="s">
         <v>6</v>
       </c>
@@ -1747,25 +1733,25 @@
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="23">
         <f>COUNTIF(E10:E33,"Y")/ROWS(E10:E33)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1788,13 +1774,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="57" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -1806,9 +1792,9 @@
       <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="44"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="16" t="s">
         <v>45</v>
       </c>
@@ -1818,9 +1804,9 @@
       <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="16" t="s">
         <v>55</v>
       </c>
@@ -1830,9 +1816,9 @@
       <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="16" t="s">
         <v>53</v>
       </c>
@@ -1842,11 +1828,11 @@
       <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -1860,9 +1846,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="44"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="16" t="s">
         <v>33</v>
       </c>
@@ -1872,9 +1858,9 @@
       <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="16" t="s">
         <v>35</v>
       </c>
@@ -1884,9 +1870,9 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="43" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="57" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="16" t="s">
@@ -1898,9 +1884,9 @@
       <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="44"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="16" t="s">
         <v>59</v>
       </c>
@@ -1910,9 +1896,9 @@
       <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="45"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="16" t="s">
         <v>36</v>
       </c>
@@ -1922,9 +1908,9 @@
       <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="43" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="57" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -1936,9 +1922,9 @@
       <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="16" t="s">
         <v>38</v>
       </c>
@@ -1948,9 +1934,9 @@
       <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="45"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="16" t="s">
         <v>39</v>
       </c>
@@ -1960,8 +1946,8 @@
       <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="31" t="s">
         <v>40</v>
       </c>
@@ -1974,9 +1960,9 @@
       <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="43" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -1988,9 +1974,9 @@
       <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="45"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="15" t="s">
         <v>54</v>
       </c>
@@ -2000,13 +1986,13 @@
       <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>23</v>
@@ -2014,8 +2000,8 @@
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="38" t="s">
         <v>30</v>
       </c>
@@ -2028,13 +2014,13 @@
       <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>23</v>
@@ -2042,15 +2028,15 @@
       <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="D29" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>23</v>
@@ -2058,13 +2044,13 @@
       <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="57" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="16" t="s">
@@ -2076,9 +2062,9 @@
       <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="45"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="16" t="s">
         <v>51</v>
       </c>
@@ -2088,8 +2074,8 @@
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="31" t="s">
         <v>42</v>
       </c>
@@ -2102,15 +2088,15 @@
       <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="D33" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>23</v>
@@ -2119,14 +2105,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="A10:A29"/>
@@ -2138,37 +2116,45 @@
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="9" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="33" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="37" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E32">
-    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="31" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2216,28 +2202,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <EmailTo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailHeaders xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <EmailSender xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailFrom xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailSubject xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailCc xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DACAFF6E33019349B93F2443E7DDCAB9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8d807c2493d2c3d9870c0a58315e2726">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86a28fafe5915cae2a78c009e91e23ab" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2406,32 +2370,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94009DDD-981B-43C7-8CD0-85CDD138DBD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{255CEA57-682A-4711-AA83-3EDFE4A0F805}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <EmailTo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailHeaders xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <EmailSender xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailFrom xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailSubject xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailCc xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07565EDF-20D7-4B2C-8D71-7F1FA2E59011}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2448,4 +2409,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{255CEA57-682A-4711-AA83-3EDFE4A0F805}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94009DDD-981B-43C7-8CD0-85CDD138DBD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>